--- a/natmiOut/OldD4/LR-pairs_lrc2p/Mmrn2-Clec14a.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Mmrn2-Clec14a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>Clec14a</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.2359572012166</v>
+        <v>42.00142366666667</v>
       </c>
       <c r="H2">
-        <v>39.2359572012166</v>
+        <v>126.004271</v>
       </c>
       <c r="I2">
-        <v>0.949234654564911</v>
+        <v>0.9484641293860542</v>
       </c>
       <c r="J2">
-        <v>0.949234654564911</v>
+        <v>0.9560916295960394</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.3222870647825</v>
+        <v>12.63996033333333</v>
       </c>
       <c r="N2">
-        <v>11.3222870647825</v>
+        <v>37.919881</v>
       </c>
       <c r="O2">
-        <v>0.8595988552543166</v>
+        <v>0.8611101399999848</v>
       </c>
       <c r="P2">
-        <v>0.8595988552543166</v>
+        <v>0.8745772488577931</v>
       </c>
       <c r="Q2">
-        <v>444.2407706936945</v>
+        <v>530.8963290901946</v>
       </c>
       <c r="R2">
-        <v>444.2407706936945</v>
+        <v>4778.066961811752</v>
       </c>
       <c r="S2">
-        <v>0.8159610224317241</v>
+        <v>0.8167320792405888</v>
       </c>
       <c r="T2">
-        <v>0.8159610224317241</v>
+        <v>0.8361759870680683</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.2359572012166</v>
+        <v>42.00142366666667</v>
       </c>
       <c r="H3">
-        <v>39.2359572012166</v>
+        <v>126.004271</v>
       </c>
       <c r="I3">
-        <v>0.949234654564911</v>
+        <v>0.9484641293860542</v>
       </c>
       <c r="J3">
-        <v>0.949234654564911</v>
+        <v>0.9560916295960394</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.31562897835511</v>
+        <v>1.350107333333334</v>
       </c>
       <c r="N3">
-        <v>1.31562897835511</v>
+        <v>4.050322</v>
       </c>
       <c r="O3">
-        <v>0.09988380945145939</v>
+        <v>0.09197743380220573</v>
       </c>
       <c r="P3">
-        <v>0.09988380945145939</v>
+        <v>0.09341589104006402</v>
       </c>
       <c r="Q3">
-        <v>51.61996228742142</v>
+        <v>56.7064301028069</v>
       </c>
       <c r="R3">
-        <v>51.61996228742142</v>
+        <v>510.3578709252621</v>
       </c>
       <c r="S3">
-        <v>0.09481317336128343</v>
+        <v>0.08723729667437249</v>
       </c>
       <c r="T3">
-        <v>0.09481317336128343</v>
+        <v>0.08931415149466088</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.2359572012166</v>
+        <v>42.00142366666667</v>
       </c>
       <c r="H4">
-        <v>39.2359572012166</v>
+        <v>126.004271</v>
       </c>
       <c r="I4">
-        <v>0.949234654564911</v>
+        <v>0.9484641293860542</v>
       </c>
       <c r="J4">
-        <v>0.949234654564911</v>
+        <v>0.9560916295960394</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.533677887653217</v>
+        <v>0.010527</v>
       </c>
       <c r="N4">
-        <v>0.533677887653217</v>
+        <v>0.031581</v>
       </c>
       <c r="O4">
-        <v>0.04051733529422393</v>
+        <v>0.0007171625705085814</v>
       </c>
       <c r="P4">
-        <v>0.04051733529422393</v>
+        <v>0.0007283784486606896</v>
       </c>
       <c r="Q4">
-        <v>20.9393627591973</v>
+        <v>0.442148986939</v>
       </c>
       <c r="R4">
-        <v>20.9393627591973</v>
+        <v>3.979340882451</v>
       </c>
       <c r="S4">
-        <v>0.03846045877190333</v>
+        <v>0.0006802029730656864</v>
       </c>
       <c r="T4">
-        <v>0.03846045877190333</v>
+        <v>0.0006963965379426339</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.0706785952991</v>
+        <v>42.00142366666667</v>
       </c>
       <c r="H5">
-        <v>1.0706785952991</v>
+        <v>126.004271</v>
       </c>
       <c r="I5">
-        <v>0.02590290384268418</v>
+        <v>0.9484641293860542</v>
       </c>
       <c r="J5">
-        <v>0.02590290384268418</v>
+        <v>0.9560916295960394</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.3222870647825</v>
+        <v>0.6780855</v>
       </c>
       <c r="N5">
-        <v>11.3222870647825</v>
+        <v>1.356171</v>
       </c>
       <c r="O5">
-        <v>0.8595988552543166</v>
+        <v>0.04619526362730091</v>
       </c>
       <c r="P5">
-        <v>0.8595988552543166</v>
+        <v>0.03127848165348204</v>
       </c>
       <c r="Q5">
-        <v>12.1225304100945</v>
+        <v>28.4805563677235</v>
       </c>
       <c r="R5">
-        <v>12.1225304100945</v>
+        <v>170.883338206341</v>
       </c>
       <c r="S5">
-        <v>0.02226610649093396</v>
+        <v>0.04381455049802722</v>
       </c>
       <c r="T5">
-        <v>0.02226610649093396</v>
+        <v>0.02990509449536746</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.0706785952991</v>
+        <v>1.173162333333333</v>
       </c>
       <c r="H6">
-        <v>1.0706785952991</v>
+        <v>3.519487</v>
       </c>
       <c r="I6">
-        <v>0.02590290384268418</v>
+        <v>0.0264920160788878</v>
       </c>
       <c r="J6">
-        <v>0.02590290384268418</v>
+        <v>0.02670506352258548</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.31562897835511</v>
+        <v>12.63996033333333</v>
       </c>
       <c r="N6">
-        <v>1.31562897835511</v>
+        <v>37.919881</v>
       </c>
       <c r="O6">
-        <v>0.09988380945145939</v>
+        <v>0.8611101399999848</v>
       </c>
       <c r="P6">
-        <v>0.09988380945145939</v>
+        <v>0.8745772488577931</v>
       </c>
       <c r="Q6">
-        <v>1.408615786480039</v>
+        <v>14.82872535789411</v>
       </c>
       <c r="R6">
-        <v>1.408615786480039</v>
+        <v>133.458528221047</v>
       </c>
       <c r="S6">
-        <v>0.002587280711662142</v>
+        <v>0.02281254367457292</v>
       </c>
       <c r="T6">
-        <v>0.002587280711662142</v>
+        <v>0.02335564098615541</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.0706785952991</v>
+        <v>1.173162333333333</v>
       </c>
       <c r="H7">
-        <v>1.0706785952991</v>
+        <v>3.519487</v>
       </c>
       <c r="I7">
-        <v>0.02590290384268418</v>
+        <v>0.0264920160788878</v>
       </c>
       <c r="J7">
-        <v>0.02590290384268418</v>
+        <v>0.02670506352258548</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.533677887653217</v>
+        <v>1.350107333333334</v>
       </c>
       <c r="N7">
-        <v>0.533677887653217</v>
+        <v>4.050322</v>
       </c>
       <c r="O7">
-        <v>0.04051733529422393</v>
+        <v>0.09197743380220573</v>
       </c>
       <c r="P7">
-        <v>0.04051733529422393</v>
+        <v>0.09341589104006402</v>
       </c>
       <c r="Q7">
-        <v>0.5713974910947373</v>
+        <v>1.583895069423778</v>
       </c>
       <c r="R7">
-        <v>0.5713974910947373</v>
+        <v>14.255055624814</v>
       </c>
       <c r="S7">
-        <v>0.001049516640088076</v>
+        <v>0.002436667655182872</v>
       </c>
       <c r="T7">
-        <v>0.001049516640088076</v>
+        <v>0.002494677304243834</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.02767180859455</v>
+        <v>1.173162333333333</v>
       </c>
       <c r="H8">
-        <v>1.02767180859455</v>
+        <v>3.519487</v>
       </c>
       <c r="I8">
-        <v>0.02486244159240487</v>
+        <v>0.0264920160788878</v>
       </c>
       <c r="J8">
-        <v>0.02486244159240487</v>
+        <v>0.02670506352258548</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>11.3222870647825</v>
+        <v>0.010527</v>
       </c>
       <c r="N8">
-        <v>11.3222870647825</v>
+        <v>0.031581</v>
       </c>
       <c r="O8">
-        <v>0.8595988552543166</v>
+        <v>0.0007171625705085814</v>
       </c>
       <c r="P8">
-        <v>0.8595988552543166</v>
+        <v>0.0007283784486606896</v>
       </c>
       <c r="Q8">
-        <v>11.63559522529171</v>
+        <v>0.012349879883</v>
       </c>
       <c r="R8">
-        <v>11.63559522529171</v>
+        <v>0.111148918947</v>
       </c>
       <c r="S8">
-        <v>0.02137172633165853</v>
+        <v>1.899908234908984E-05</v>
       </c>
       <c r="T8">
-        <v>0.02137172633165853</v>
+        <v>1.945139273996598E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.02767180859455</v>
+        <v>1.173162333333333</v>
       </c>
       <c r="H9">
-        <v>1.02767180859455</v>
+        <v>3.519487</v>
       </c>
       <c r="I9">
-        <v>0.02486244159240487</v>
+        <v>0.0264920160788878</v>
       </c>
       <c r="J9">
-        <v>0.02486244159240487</v>
+        <v>0.02670506352258548</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.31562897835511</v>
+        <v>0.6780855</v>
       </c>
       <c r="N9">
-        <v>1.31562897835511</v>
+        <v>1.356171</v>
       </c>
       <c r="O9">
-        <v>0.09988380945145939</v>
+        <v>0.04619526362730091</v>
       </c>
       <c r="P9">
-        <v>0.09988380945145939</v>
+        <v>0.03127848165348204</v>
       </c>
       <c r="Q9">
-        <v>1.352034811625596</v>
+        <v>0.7955043673794999</v>
       </c>
       <c r="R9">
-        <v>1.352034811625596</v>
+        <v>4.773026204277</v>
       </c>
       <c r="S9">
-        <v>0.002483355378513807</v>
+        <v>0.001223805666782916</v>
       </c>
       <c r="T9">
-        <v>0.002483355378513807</v>
+        <v>0.0008352938394462624</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1021,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.049176</v>
+      </c>
+      <c r="H10">
+        <v>0.147528</v>
+      </c>
+      <c r="I10">
+        <v>0.001110478358944403</v>
+      </c>
+      <c r="J10">
+        <v>0.001119408769334847</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>12.63996033333333</v>
+      </c>
+      <c r="N10">
+        <v>37.919881</v>
+      </c>
+      <c r="O10">
+        <v>0.8611101399999848</v>
+      </c>
+      <c r="P10">
+        <v>0.8745772488577931</v>
+      </c>
+      <c r="Q10">
+        <v>0.621582689352</v>
+      </c>
+      <c r="R10">
+        <v>5.594244204168001</v>
+      </c>
+      <c r="S10">
+        <v>0.0009562441751375679</v>
+      </c>
+      <c r="T10">
+        <v>0.000979009441832158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.049176</v>
+      </c>
+      <c r="H11">
+        <v>0.147528</v>
+      </c>
+      <c r="I11">
+        <v>0.001110478358944403</v>
+      </c>
+      <c r="J11">
+        <v>0.001119408769334847</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.350107333333334</v>
+      </c>
+      <c r="N11">
+        <v>4.050322</v>
+      </c>
+      <c r="O11">
+        <v>0.09197743380220573</v>
+      </c>
+      <c r="P11">
+        <v>0.09341589104006402</v>
+      </c>
+      <c r="Q11">
+        <v>0.066392878224</v>
+      </c>
+      <c r="R11">
+        <v>0.597535904016</v>
+      </c>
+      <c r="S11">
+        <v>0.0001021389497485909</v>
+      </c>
+      <c r="T11">
+        <v>0.0001045705676254762</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.049176</v>
+      </c>
+      <c r="H12">
+        <v>0.147528</v>
+      </c>
+      <c r="I12">
+        <v>0.001110478358944403</v>
+      </c>
+      <c r="J12">
+        <v>0.001119408769334847</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.010527</v>
+      </c>
+      <c r="N12">
+        <v>0.031581</v>
+      </c>
+      <c r="O12">
+        <v>0.0007171625705085814</v>
+      </c>
+      <c r="P12">
+        <v>0.0007283784486606896</v>
+      </c>
+      <c r="Q12">
+        <v>0.0005176757519999999</v>
+      </c>
+      <c r="R12">
+        <v>0.004659081767999999</v>
+      </c>
+      <c r="S12">
+        <v>7.963935143947189E-07</v>
+      </c>
+      <c r="T12">
+        <v>8.153532228252873E-07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.049176</v>
+      </c>
+      <c r="H13">
+        <v>0.147528</v>
+      </c>
+      <c r="I13">
+        <v>0.001110478358944403</v>
+      </c>
+      <c r="J13">
+        <v>0.001119408769334847</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.6780855</v>
+      </c>
+      <c r="N13">
+        <v>1.356171</v>
+      </c>
+      <c r="O13">
+        <v>0.04619526362730091</v>
+      </c>
+      <c r="P13">
+        <v>0.03127848165348204</v>
+      </c>
+      <c r="Q13">
+        <v>0.033345532548</v>
+      </c>
+      <c r="R13">
+        <v>0.200073195288</v>
+      </c>
+      <c r="S13">
+        <v>5.129884054384917E-05</v>
+      </c>
+      <c r="T13">
+        <v>3.501340665438691E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.02767180859455</v>
-      </c>
-      <c r="H10">
-        <v>1.02767180859455</v>
-      </c>
-      <c r="I10">
-        <v>0.02486244159240487</v>
-      </c>
-      <c r="J10">
-        <v>0.02486244159240487</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.533677887653217</v>
-      </c>
-      <c r="N10">
-        <v>0.533677887653217</v>
-      </c>
-      <c r="O10">
-        <v>0.04051733529422393</v>
-      </c>
-      <c r="P10">
-        <v>0.04051733529422393</v>
-      </c>
-      <c r="Q10">
-        <v>0.5484457200115006</v>
-      </c>
-      <c r="R10">
-        <v>0.5484457200115006</v>
-      </c>
-      <c r="S10">
-        <v>0.001007359882232527</v>
-      </c>
-      <c r="T10">
-        <v>0.001007359882232527</v>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.0598565</v>
+      </c>
+      <c r="H14">
+        <v>2.119713</v>
+      </c>
+      <c r="I14">
+        <v>0.02393337617611352</v>
+      </c>
+      <c r="J14">
+        <v>0.01608389811204026</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>12.63996033333333</v>
+      </c>
+      <c r="N14">
+        <v>37.919881</v>
+      </c>
+      <c r="O14">
+        <v>0.8611101399999848</v>
+      </c>
+      <c r="P14">
+        <v>0.8745772488577931</v>
+      </c>
+      <c r="Q14">
+        <v>13.3965441190255</v>
+      </c>
+      <c r="R14">
+        <v>80.37926471415301</v>
+      </c>
+      <c r="S14">
+        <v>0.02060927290968541</v>
+      </c>
+      <c r="T14">
+        <v>0.01406661136173722</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.0598565</v>
+      </c>
+      <c r="H15">
+        <v>2.119713</v>
+      </c>
+      <c r="I15">
+        <v>0.02393337617611352</v>
+      </c>
+      <c r="J15">
+        <v>0.01608389811204026</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.350107333333334</v>
+      </c>
+      <c r="N15">
+        <v>4.050322</v>
+      </c>
+      <c r="O15">
+        <v>0.09197743380220573</v>
+      </c>
+      <c r="P15">
+        <v>0.09341589104006402</v>
+      </c>
+      <c r="Q15">
+        <v>1.430920032931</v>
+      </c>
+      <c r="R15">
+        <v>8.585520197586002</v>
+      </c>
+      <c r="S15">
+        <v>0.002201330522901769</v>
+      </c>
+      <c r="T15">
+        <v>0.001502491673533844</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.0598565</v>
+      </c>
+      <c r="H16">
+        <v>2.119713</v>
+      </c>
+      <c r="I16">
+        <v>0.02393337617611352</v>
+      </c>
+      <c r="J16">
+        <v>0.01608389811204026</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.010527</v>
+      </c>
+      <c r="N16">
+        <v>0.031581</v>
+      </c>
+      <c r="O16">
+        <v>0.0007171625705085814</v>
+      </c>
+      <c r="P16">
+        <v>0.0007283784486606896</v>
+      </c>
+      <c r="Q16">
+        <v>0.0111571093755</v>
+      </c>
+      <c r="R16">
+        <v>0.066942656253</v>
+      </c>
+      <c r="S16">
+        <v>1.716412157941041E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.171516475526448E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.0598565</v>
+      </c>
+      <c r="H17">
+        <v>2.119713</v>
+      </c>
+      <c r="I17">
+        <v>0.02393337617611352</v>
+      </c>
+      <c r="J17">
+        <v>0.01608389811204026</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.6780855</v>
+      </c>
+      <c r="N17">
+        <v>1.356171</v>
+      </c>
+      <c r="O17">
+        <v>0.04619526362730091</v>
+      </c>
+      <c r="P17">
+        <v>0.03127848165348204</v>
+      </c>
+      <c r="Q17">
+        <v>0.71867332473075</v>
+      </c>
+      <c r="R17">
+        <v>2.874693298923</v>
+      </c>
+      <c r="S17">
+        <v>0.001105608621946927</v>
+      </c>
+      <c r="T17">
+        <v>0.0005030799120139257</v>
       </c>
     </row>
   </sheetData>
